--- a/강의계획표(프론트과정_평일)_현상원강사_0.2v.xlsx
+++ b/강의계획표(프론트과정_평일)_현상원강사_0.2v.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CEO\Desktop\IT_KOREA_HTML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\상원\Desktop\workspaces\IT_KOREA_HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1766DE-307E-4A21-B128-CA82386D8F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C9BB32-54F8-497D-9F7C-F08A145C2CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD66654A-5DAE-49BF-8CB0-B1827AC1716E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{CD66654A-5DAE-49BF-8CB0-B1827AC1716E}"/>
   </bookViews>
   <sheets>
     <sheet name="curriculum1-3" sheetId="2" r:id="rId1"/>
@@ -1249,6 +1249,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1261,20 +1270,65 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1282,64 +1336,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1661,76 +1661,76 @@
   </sheetPr>
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
-    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="14.09765625" customWidth="1"/>
+    <col min="2" max="2" width="21.09765625" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="21.875" customWidth="1"/>
+    <col min="4" max="4" width="21.8984375" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.09765625" customWidth="1"/>
+    <col min="7" max="7" width="20.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.25" customWidth="1"/>
-    <col min="12" max="12" width="16.375" customWidth="1"/>
-    <col min="13" max="13" width="14.875" customWidth="1"/>
+    <col min="9" max="9" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.19921875" customWidth="1"/>
+    <col min="12" max="12" width="16.3984375" customWidth="1"/>
+    <col min="13" max="13" width="14.8984375" customWidth="1"/>
     <col min="14" max="14" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="52" t="s">
+    <row r="1" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:14" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="54"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="26"/>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54"/>
-      <c r="K2" s="55" t="s">
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="60"/>
+      <c r="K2" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="54"/>
-    </row>
-    <row r="3" spans="1:14" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="60"/>
+    </row>
+    <row r="3" spans="1:14" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="58"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
       <c r="F3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="58"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="64"/>
       <c r="K3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="56" t="s">
+      <c r="L3" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="M3" s="57"/>
-      <c r="N3" s="58"/>
-    </row>
-    <row r="4" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M3" s="63"/>
+      <c r="N3" s="64"/>
+    </row>
+    <row r="4" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>83</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="25"/>
       <c r="B5" s="22"/>
       <c r="C5" s="24"/>
@@ -1782,33 +1782,33 @@
       <c r="M5" s="24"/>
       <c r="N5" s="23"/>
     </row>
-    <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+    <row r="6" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A6" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46" t="s">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="F6" s="45" t="s">
+      <c r="D6" s="57"/>
+      <c r="F6" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46" t="s">
+      <c r="G6" s="48"/>
+      <c r="H6" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="51"/>
-      <c r="K6" s="45" t="s">
+      <c r="I6" s="57"/>
+      <c r="K6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46" t="s">
+      <c r="L6" s="48"/>
+      <c r="M6" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="51"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N6" s="57"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="31.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="31.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
@@ -1856,13 +1856,13 @@
       <c r="C8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="45" t="s">
         <v>54</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="67" t="s">
         <v>75</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -1874,17 +1874,17 @@
       <c r="K8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="67" t="s">
+      <c r="L8" s="65" t="s">
         <v>109</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N8" s="42" t="s">
+      <c r="N8" s="45" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>1</v>
       </c>
@@ -1894,11 +1894,11 @@
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="43"/>
+      <c r="D9" s="46"/>
       <c r="F9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="50"/>
+      <c r="G9" s="68"/>
       <c r="H9" s="3" t="s">
         <v>1</v>
       </c>
@@ -1908,13 +1908,13 @@
       <c r="K9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="68"/>
+      <c r="L9" s="66"/>
       <c r="M9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="43"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N9" s="46"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
@@ -1952,33 +1952,33 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="45" t="s">
+    <row r="11" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A11" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="47" t="s">
+      <c r="B11" s="48"/>
+      <c r="C11" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="F11" s="45" t="s">
+      <c r="D11" s="49"/>
+      <c r="F11" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="47" t="s">
+      <c r="G11" s="48"/>
+      <c r="H11" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="I11" s="48"/>
-      <c r="K11" s="45" t="s">
+      <c r="I11" s="49"/>
+      <c r="K11" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="46"/>
-      <c r="M11" s="47" t="s">
+      <c r="L11" s="48"/>
+      <c r="M11" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="48"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N11" s="49"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="8" t="s">
         <v>3</v>
       </c>
@@ -2016,17 +2016,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="51" t="s">
         <v>61</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="45" t="s">
         <v>62</v>
       </c>
       <c r="F13" s="10" t="s">
@@ -2044,25 +2044,25 @@
       <c r="K13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="40" t="s">
+      <c r="L13" s="43" t="s">
         <v>110</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N13" s="42" t="s">
+      <c r="N13" s="45" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="44"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="43"/>
+      <c r="D14" s="46"/>
       <c r="F14" s="10" t="s">
         <v>1</v>
       </c>
@@ -2072,19 +2072,19 @@
       <c r="H14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="60" t="s">
+      <c r="I14" s="54" t="s">
         <v>67</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="41"/>
+      <c r="L14" s="44"/>
       <c r="M14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N14" s="43"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N14" s="46"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
         <v>2</v>
       </c>
@@ -2106,7 +2106,7 @@
       <c r="H15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="61"/>
+      <c r="I15" s="55"/>
       <c r="K15" s="10" t="s">
         <v>2</v>
       </c>
@@ -2120,33 +2120,33 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="45" t="s">
+    <row r="16" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A16" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="47" t="s">
+      <c r="B16" s="48"/>
+      <c r="C16" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="F16" s="45" t="s">
+      <c r="D16" s="49"/>
+      <c r="F16" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="47" t="s">
+      <c r="G16" s="48"/>
+      <c r="H16" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="I16" s="48"/>
-      <c r="K16" s="45" t="s">
+      <c r="I16" s="49"/>
+      <c r="K16" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="46"/>
-      <c r="M16" s="47" t="s">
+      <c r="L16" s="48"/>
+      <c r="M16" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="N16" s="48"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N16" s="49"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="8" t="s">
         <v>3</v>
       </c>
@@ -2184,23 +2184,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="51" t="s">
         <v>58</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="45" t="s">
         <v>53</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="G18" s="43" t="s">
         <v>52</v>
       </c>
       <c r="H18" s="3" t="s">
@@ -2212,29 +2212,29 @@
       <c r="K18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="40" t="s">
+      <c r="L18" s="43" t="s">
         <v>114</v>
       </c>
       <c r="M18" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="N18" s="42" t="s">
+      <c r="N18" s="45" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="44"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="43"/>
+      <c r="D19" s="46"/>
       <c r="F19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="59"/>
+      <c r="G19" s="53"/>
       <c r="H19" s="3" t="s">
         <v>1</v>
       </c>
@@ -2244,13 +2244,13 @@
       <c r="K19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="59"/>
+      <c r="L19" s="53"/>
       <c r="M19" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N19" s="66"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N19" s="56"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="10" t="s">
         <v>2</v>
       </c>
@@ -2266,7 +2266,7 @@
       <c r="F20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="41"/>
+      <c r="G20" s="44"/>
       <c r="H20" s="3" t="s">
         <v>2</v>
       </c>
@@ -2276,39 +2276,39 @@
       <c r="K20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="41"/>
+      <c r="L20" s="44"/>
       <c r="M20" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N20" s="43"/>
-    </row>
-    <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="45" t="s">
+      <c r="N20" s="46"/>
+    </row>
+    <row r="21" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A21" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="47" t="s">
+      <c r="B21" s="48"/>
+      <c r="C21" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="48"/>
-      <c r="F21" s="45" t="s">
+      <c r="D21" s="49"/>
+      <c r="F21" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="G21" s="46"/>
-      <c r="H21" s="47" t="s">
+      <c r="G21" s="48"/>
+      <c r="H21" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="I21" s="48"/>
-      <c r="K21" s="45" t="s">
+      <c r="I21" s="49"/>
+      <c r="K21" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="L21" s="62"/>
-      <c r="M21" s="47" t="s">
+      <c r="L21" s="50"/>
+      <c r="M21" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="N21" s="48"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N21" s="49"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="8" t="s">
         <v>3</v>
       </c>
@@ -2346,71 +2346,71 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="51" t="s">
         <v>57</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D23" s="45" t="s">
         <v>59</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="40" t="s">
+      <c r="G23" s="43" t="s">
         <v>88</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I23" s="42" t="s">
+      <c r="I23" s="45" t="s">
         <v>43</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L23" s="44" t="s">
+      <c r="L23" s="51" t="s">
         <v>112</v>
       </c>
       <c r="M23" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="N23" s="42" t="s">
+      <c r="N23" s="45" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="44"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="43"/>
+      <c r="D24" s="46"/>
       <c r="F24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="41"/>
+      <c r="G24" s="44"/>
       <c r="H24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="43"/>
+      <c r="I24" s="46"/>
       <c r="K24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L24" s="44"/>
+      <c r="L24" s="51"/>
       <c r="M24" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N24" s="43"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N24" s="46"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" s="10" t="s">
         <v>2</v>
       </c>
@@ -2438,7 +2438,7 @@
       <c r="K25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="44"/>
+      <c r="L25" s="51"/>
       <c r="M25" s="29" t="s">
         <v>2</v>
       </c>
@@ -2446,33 +2446,33 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="45" t="s">
+    <row r="26" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A26" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47" t="s">
+      <c r="B26" s="48"/>
+      <c r="C26" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="48"/>
-      <c r="F26" s="45" t="s">
+      <c r="D26" s="49"/>
+      <c r="F26" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="G26" s="46"/>
-      <c r="H26" s="47" t="s">
+      <c r="G26" s="48"/>
+      <c r="H26" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="I26" s="48"/>
-      <c r="K26" s="45" t="s">
+      <c r="I26" s="49"/>
+      <c r="K26" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="62"/>
-      <c r="M26" s="47" t="s">
+      <c r="L26" s="50"/>
+      <c r="M26" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="63"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N26" s="42"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="8" t="s">
         <v>3</v>
       </c>
@@ -2510,71 +2510,71 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="43" t="s">
         <v>63</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="45" t="s">
         <v>64</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G28" s="40" t="s">
+      <c r="G28" s="43" t="s">
         <v>81</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I28" s="42" t="s">
+      <c r="I28" s="45" t="s">
         <v>82</v>
       </c>
       <c r="K28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L28" s="44" t="s">
+      <c r="L28" s="51" t="s">
         <v>127</v>
       </c>
       <c r="M28" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="N28" s="69" t="s">
+      <c r="N28" s="52" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="41"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="43"/>
+      <c r="D29" s="46"/>
       <c r="F29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="41"/>
+      <c r="G29" s="44"/>
       <c r="H29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I29" s="43"/>
+      <c r="I29" s="46"/>
       <c r="K29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L29" s="44"/>
+      <c r="L29" s="51"/>
       <c r="M29" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N29" s="69"/>
-    </row>
-    <row r="30" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N29" s="52"/>
+    </row>
+    <row r="30" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="11" t="s">
         <v>2</v>
       </c>
@@ -2602,7 +2602,7 @@
       <c r="K30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L30" s="70" t="s">
+      <c r="L30" s="40" t="s">
         <v>46</v>
       </c>
       <c r="M30" s="30" t="s">
@@ -2612,11 +2612,61 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C31" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="N23:N24"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="D28:D29"/>
@@ -2629,56 +2679,6 @@
     <mergeCell ref="I28:I29"/>
     <mergeCell ref="L28:L29"/>
     <mergeCell ref="N28:N29"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2697,72 +2697,72 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
-    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="14.09765625" customWidth="1"/>
+    <col min="2" max="2" width="21.09765625" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="21.875" customWidth="1"/>
+    <col min="4" max="4" width="21.8984375" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.09765625" customWidth="1"/>
+    <col min="7" max="7" width="20.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.25" customWidth="1"/>
-    <col min="12" max="12" width="16.375" customWidth="1"/>
-    <col min="13" max="13" width="14.875" customWidth="1"/>
+    <col min="9" max="9" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.19921875" customWidth="1"/>
+    <col min="12" max="12" width="16.3984375" customWidth="1"/>
+    <col min="13" max="13" width="14.8984375" customWidth="1"/>
     <col min="14" max="14" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="55" t="s">
+    <row r="1" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:14" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="54"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="26"/>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54"/>
-      <c r="K2" s="55" t="s">
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="60"/>
+      <c r="K2" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="54"/>
-    </row>
-    <row r="3" spans="1:14" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="60"/>
+    </row>
+    <row r="3" spans="1:14" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="58"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
       <c r="F3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="58"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="64"/>
       <c r="K3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="56" t="s">
+      <c r="L3" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="57"/>
-      <c r="N3" s="58"/>
-    </row>
-    <row r="4" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M3" s="63"/>
+      <c r="N3" s="64"/>
+    </row>
+    <row r="4" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="25"/>
       <c r="B5" s="22"/>
       <c r="C5" s="24"/>
@@ -2814,33 +2814,33 @@
       <c r="M5" s="24"/>
       <c r="N5" s="23"/>
     </row>
-    <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+    <row r="6" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46" t="s">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="F6" s="45" t="s">
+      <c r="D6" s="57"/>
+      <c r="F6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46" t="s">
+      <c r="G6" s="48"/>
+      <c r="H6" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="51"/>
-      <c r="K6" s="45" t="s">
+      <c r="I6" s="57"/>
+      <c r="K6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46" t="s">
+      <c r="L6" s="48"/>
+      <c r="M6" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="51"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N6" s="57"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
@@ -2894,75 +2894,75 @@
       <c r="F8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="43" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="45" t="s">
         <v>20</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="40" t="s">
+      <c r="L8" s="43" t="s">
         <v>29</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N8" s="42" t="s">
+      <c r="N8" s="45" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="43" t="s">
         <v>118</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="45" t="s">
         <v>117</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="59"/>
+      <c r="G9" s="53"/>
       <c r="H9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="66"/>
+      <c r="I9" s="56"/>
       <c r="K9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="41"/>
+      <c r="L9" s="44"/>
       <c r="M9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="43"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N9" s="46"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="41"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="43"/>
+      <c r="D10" s="46"/>
       <c r="F10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="41"/>
+      <c r="G10" s="44"/>
       <c r="H10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="43"/>
+      <c r="I10" s="46"/>
       <c r="K10" s="10" t="s">
         <v>2</v>
       </c>
@@ -2976,33 +2976,33 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="45" t="s">
+    <row r="11" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A11" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="47" t="s">
+      <c r="B11" s="48"/>
+      <c r="C11" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="F11" s="45" t="s">
+      <c r="D11" s="49"/>
+      <c r="F11" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="47" t="s">
+      <c r="G11" s="48"/>
+      <c r="H11" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="48"/>
-      <c r="K11" s="45" t="s">
+      <c r="I11" s="49"/>
+      <c r="K11" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="46"/>
-      <c r="M11" s="47" t="s">
+      <c r="L11" s="48"/>
+      <c r="M11" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="48"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N11" s="49"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="8" t="s">
         <v>3</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
         <v>0</v>
       </c>
@@ -3068,27 +3068,27 @@
       <c r="K13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="40" t="s">
+      <c r="L13" s="43" t="s">
         <v>36</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N13" s="42" t="s">
+      <c r="N13" s="45" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="43" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="45" t="s">
         <v>44</v>
       </c>
       <c r="F14" s="10" t="s">
@@ -3106,21 +3106,21 @@
       <c r="K14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="59"/>
+      <c r="L14" s="53"/>
       <c r="M14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N14" s="66"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N14" s="56"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="41"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="43"/>
+      <c r="D15" s="46"/>
       <c r="F15" s="10" t="s">
         <v>2</v>
       </c>
@@ -3136,39 +3136,39 @@
       <c r="K15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L15" s="41"/>
+      <c r="L15" s="44"/>
       <c r="M15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N15" s="43"/>
-    </row>
-    <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="45" t="s">
+      <c r="N15" s="46"/>
+    </row>
+    <row r="16" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A16" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="47" t="s">
+      <c r="B16" s="48"/>
+      <c r="C16" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="F16" s="45" t="s">
+      <c r="D16" s="49"/>
+      <c r="F16" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="47" t="s">
+      <c r="G16" s="48"/>
+      <c r="H16" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="48"/>
-      <c r="K16" s="45" t="s">
+      <c r="I16" s="49"/>
+      <c r="K16" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="46"/>
-      <c r="M16" s="47" t="s">
+      <c r="L16" s="48"/>
+      <c r="M16" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="N16" s="48"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N16" s="49"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="8" t="s">
         <v>3</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A18" s="10" t="s">
         <v>0</v>
       </c>
@@ -3222,19 +3222,19 @@
       <c r="F18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="G18" s="43" t="s">
         <v>24</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="42" t="s">
+      <c r="I18" s="45" t="s">
         <v>25</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="40" t="s">
+      <c r="L18" s="43" t="s">
         <v>40</v>
       </c>
       <c r="M18" s="29" t="s">
@@ -3244,91 +3244,91 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="43" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="45" t="s">
         <v>38</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="59"/>
+      <c r="G19" s="53"/>
       <c r="H19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I19" s="66"/>
+      <c r="I19" s="56"/>
       <c r="K19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="59"/>
+      <c r="L19" s="53"/>
       <c r="M19" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N19" s="66" t="s">
+      <c r="N19" s="56" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="41"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="43"/>
+      <c r="D20" s="46"/>
       <c r="F20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="41"/>
+      <c r="G20" s="44"/>
       <c r="H20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I20" s="43"/>
+      <c r="I20" s="46"/>
       <c r="K20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="41"/>
+      <c r="L20" s="44"/>
       <c r="M20" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N20" s="43"/>
-    </row>
-    <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="45" t="s">
+      <c r="N20" s="46"/>
+    </row>
+    <row r="21" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A21" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="47" t="s">
+      <c r="B21" s="48"/>
+      <c r="C21" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="48"/>
-      <c r="F21" s="45" t="s">
+      <c r="D21" s="49"/>
+      <c r="F21" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="46"/>
-      <c r="H21" s="47" t="s">
+      <c r="G21" s="48"/>
+      <c r="H21" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="48"/>
-      <c r="K21" s="45" t="s">
+      <c r="I21" s="49"/>
+      <c r="K21" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="62"/>
-      <c r="M21" s="47" t="s">
+      <c r="L21" s="50"/>
+      <c r="M21" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="N21" s="48"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N21" s="49"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="8" t="s">
         <v>3</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="10" t="s">
         <v>0</v>
       </c>
@@ -3382,111 +3382,111 @@
       <c r="F23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="40" t="s">
+      <c r="G23" s="43" t="s">
         <v>26</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I23" s="42" t="s">
+      <c r="I23" s="45" t="s">
         <v>27</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L23" s="40" t="s">
+      <c r="L23" s="43" t="s">
         <v>34</v>
       </c>
       <c r="M23" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="N23" s="42" t="s">
+      <c r="N23" s="45" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="43" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="45" t="s">
         <v>38</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="59"/>
+      <c r="G24" s="53"/>
       <c r="H24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="66"/>
+      <c r="I24" s="56"/>
       <c r="K24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L24" s="59"/>
+      <c r="L24" s="53"/>
       <c r="M24" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N24" s="66"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N24" s="56"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="41"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="43"/>
+      <c r="D25" s="46"/>
       <c r="F25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G25" s="41"/>
+      <c r="G25" s="44"/>
       <c r="H25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I25" s="43"/>
+      <c r="I25" s="46"/>
       <c r="K25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="41"/>
+      <c r="L25" s="44"/>
       <c r="M25" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N25" s="43"/>
-    </row>
-    <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="45" t="s">
+      <c r="N25" s="46"/>
+    </row>
+    <row r="26" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A26" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47" t="s">
+      <c r="B26" s="48"/>
+      <c r="C26" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="48"/>
-      <c r="F26" s="45" t="s">
+      <c r="D26" s="49"/>
+      <c r="F26" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="46"/>
-      <c r="H26" s="47" t="s">
+      <c r="G26" s="48"/>
+      <c r="H26" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="48"/>
-      <c r="K26" s="45" t="s">
+      <c r="I26" s="49"/>
+      <c r="K26" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="62"/>
-      <c r="M26" s="47" t="s">
+      <c r="L26" s="50"/>
+      <c r="M26" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="63"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N26" s="42"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="8" t="s">
         <v>3</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="10" t="s">
         <v>0</v>
       </c>
@@ -3540,7 +3540,7 @@
       <c r="F28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G28" s="40" t="s">
+      <c r="G28" s="43" t="s">
         <v>28</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -3552,69 +3552,69 @@
       <c r="K28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L28" s="40" t="s">
+      <c r="L28" s="43" t="s">
         <v>34</v>
       </c>
       <c r="M28" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="N28" s="42" t="s">
+      <c r="N28" s="45" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="43" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="42" t="s">
+      <c r="D29" s="45" t="s">
         <v>38</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="59"/>
+      <c r="G29" s="53"/>
       <c r="H29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I29" s="42" t="s">
+      <c r="I29" s="45" t="s">
         <v>120</v>
       </c>
       <c r="K29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L29" s="59"/>
+      <c r="L29" s="53"/>
       <c r="M29" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N29" s="43"/>
-    </row>
-    <row r="30" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N29" s="46"/>
+    </row>
+    <row r="30" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="64"/>
+      <c r="B30" s="70"/>
       <c r="C30" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="65"/>
+      <c r="D30" s="69"/>
       <c r="F30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="64"/>
+      <c r="G30" s="70"/>
       <c r="H30" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I30" s="65"/>
+      <c r="I30" s="69"/>
       <c r="K30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L30" s="64"/>
+      <c r="L30" s="70"/>
       <c r="M30" s="30" t="s">
         <v>2</v>
       </c>
@@ -3624,23 +3624,30 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="I8:I10"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
@@ -3657,22 +3664,23 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="M16:N16"/>
@@ -3680,14 +3688,6 @@
     <mergeCell ref="L28:L30"/>
     <mergeCell ref="N28:N29"/>
     <mergeCell ref="L13:L15"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="N23:N25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/강의계획표(프론트과정_평일)_현상원강사_0.2v.xlsx
+++ b/강의계획표(프론트과정_평일)_현상원강사_0.2v.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\상원\Desktop\workspaces\IT_KOREA_HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C9BB32-54F8-497D-9F7C-F08A145C2CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32B0D5A-0464-49BE-A462-80BCD462044F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{CD66654A-5DAE-49BF-8CB0-B1827AC1716E}"/>
   </bookViews>
@@ -210,10 +210,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Javascript 기초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>구현 실습</t>
   </si>
   <si>
@@ -470,9 +466,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Javascript 기초</t>
-  </si>
-  <si>
     <t>Drop Menu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -638,6 +631,16 @@
   <si>
     <t>React
 조건부 렌더링 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript 기초
+기본 DOM 접근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript 기초
+If, for, while</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1252,94 +1255,94 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1661,8 +1664,8 @@
   </sheetPr>
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1684,58 +1687,58 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="1:14" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="60"/>
-      <c r="K2" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="60"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="53"/>
+      <c r="K2" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="53"/>
     </row>
     <row r="3" spans="1:14" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
+      <c r="B3" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
       <c r="F3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="63"/>
-      <c r="I3" s="64"/>
+      <c r="G3" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
       <c r="K3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="M3" s="63"/>
-      <c r="N3" s="64"/>
+      <c r="L3" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" s="56"/>
+      <c r="N3" s="57"/>
     </row>
     <row r="4" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>16</v>
@@ -1744,10 +1747,10 @@
         <v>17</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>16</v>
@@ -1756,10 +1759,10 @@
         <v>17</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>16</v>
@@ -1783,30 +1786,30 @@
       <c r="N5" s="23"/>
     </row>
     <row r="6" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A6" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="57"/>
-      <c r="F6" s="47" t="s">
+      <c r="A6" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="50"/>
+      <c r="F6" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" s="57"/>
-      <c r="K6" s="47" t="s">
+      <c r="I6" s="50"/>
+      <c r="K6" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48" t="s">
+      <c r="L6" s="47"/>
+      <c r="M6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="57"/>
+      <c r="N6" s="50"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
@@ -1856,32 +1859,32 @@
       <c r="C8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="45" t="s">
-        <v>54</v>
+      <c r="D8" s="41" t="s">
+        <v>53</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="67" t="s">
-        <v>75</v>
+      <c r="G8" s="43" t="s">
+        <v>74</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="65" t="s">
-        <v>109</v>
+      <c r="L8" s="64" t="s">
+        <v>107</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N8" s="45" t="s">
-        <v>110</v>
+      <c r="N8" s="41" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
@@ -1889,37 +1892,37 @@
         <v>1</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="46"/>
+      <c r="D9" s="42"/>
       <c r="F9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="68"/>
+      <c r="G9" s="44"/>
       <c r="H9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="66"/>
+      <c r="L9" s="65"/>
       <c r="M9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="46"/>
+      <c r="N9" s="42"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
@@ -1931,49 +1934,49 @@
         <v>2</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>2</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="N10" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A11" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="41" t="s">
-        <v>108</v>
+      <c r="A11" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48" t="s">
+        <v>106</v>
       </c>
       <c r="D11" s="49"/>
-      <c r="F11" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="41" t="s">
-        <v>98</v>
+      <c r="F11" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="47"/>
+      <c r="H11" s="48" t="s">
+        <v>96</v>
       </c>
       <c r="I11" s="49"/>
-      <c r="K11" s="47" t="s">
+      <c r="K11" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="48"/>
-      <c r="M11" s="41" t="s">
+      <c r="L11" s="47"/>
+      <c r="M11" s="48" t="s">
         <v>8</v>
       </c>
       <c r="N11" s="49"/>
@@ -2020,69 +2023,69 @@
       <c r="A13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="45" t="s">
-        <v>62</v>
-      </c>
       <c r="F13" s="10" t="s">
         <v>0</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I13" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="43" t="s">
-        <v>110</v>
+      <c r="L13" s="58" t="s">
+        <v>108</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N13" s="45" t="s">
-        <v>110</v>
+      <c r="N13" s="41" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="46"/>
+      <c r="D14" s="42"/>
       <c r="F14" s="10" t="s">
         <v>1</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="54" t="s">
-        <v>67</v>
+      <c r="I14" s="61" t="s">
+        <v>66</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="44"/>
+      <c r="L14" s="60"/>
       <c r="M14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N14" s="46"/>
+      <c r="N14" s="42"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
@@ -2095,53 +2098,53 @@
         <v>2</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>2</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="55"/>
+      <c r="I15" s="62"/>
       <c r="K15" s="10" t="s">
         <v>2</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N15" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A16" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="41" t="s">
-        <v>103</v>
+      <c r="A16" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48" t="s">
+        <v>101</v>
       </c>
       <c r="D16" s="49"/>
-      <c r="F16" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="48"/>
-      <c r="H16" s="41" t="s">
-        <v>79</v>
+      <c r="F16" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="47"/>
+      <c r="H16" s="48" t="s">
+        <v>78</v>
       </c>
       <c r="I16" s="49"/>
-      <c r="K16" s="47" t="s">
+      <c r="K16" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="48"/>
-      <c r="M16" s="41" t="s">
+      <c r="L16" s="47"/>
+      <c r="M16" s="48" t="s">
         <v>10</v>
       </c>
       <c r="N16" s="49"/>
@@ -2188,67 +2191,67 @@
       <c r="A18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="51" t="s">
-        <v>58</v>
+      <c r="B18" s="45" t="s">
+        <v>57</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="45" t="s">
-        <v>53</v>
+      <c r="D18" s="41" t="s">
+        <v>52</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="43" t="s">
-        <v>52</v>
+      <c r="G18" s="58" t="s">
+        <v>51</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="43" t="s">
-        <v>114</v>
+      <c r="L18" s="58" t="s">
+        <v>112</v>
       </c>
       <c r="M18" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="N18" s="45" t="s">
-        <v>113</v>
+      <c r="N18" s="41" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="51"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="46"/>
+      <c r="D19" s="42"/>
       <c r="F19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="53"/>
+      <c r="G19" s="59"/>
       <c r="H19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="53"/>
+      <c r="L19" s="59"/>
       <c r="M19" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N19" s="56"/>
+      <c r="N19" s="63"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="10" t="s">
@@ -2266,44 +2269,44 @@
       <c r="F20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="44"/>
+      <c r="G20" s="60"/>
       <c r="H20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="44"/>
+      <c r="L20" s="60"/>
       <c r="M20" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N20" s="46"/>
+      <c r="N20" s="42"/>
     </row>
     <row r="21" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A21" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="41" t="s">
-        <v>101</v>
+      <c r="A21" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48" t="s">
+        <v>99</v>
       </c>
       <c r="D21" s="49"/>
-      <c r="F21" s="47" t="s">
+      <c r="F21" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="47"/>
+      <c r="H21" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="G21" s="48"/>
-      <c r="H21" s="41" t="s">
-        <v>94</v>
-      </c>
       <c r="I21" s="49"/>
-      <c r="K21" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="L21" s="50"/>
-      <c r="M21" s="41" t="s">
+      <c r="K21" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="L21" s="66"/>
+      <c r="M21" s="48" t="s">
         <v>12</v>
       </c>
       <c r="N21" s="49"/>
@@ -2350,65 +2353,65 @@
       <c r="A23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="51" t="s">
-        <v>57</v>
+      <c r="B23" s="45" t="s">
+        <v>56</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="45" t="s">
-        <v>59</v>
+      <c r="D23" s="41" t="s">
+        <v>58</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="43" t="s">
-        <v>88</v>
+      <c r="G23" s="58" t="s">
+        <v>127</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I23" s="45" t="s">
-        <v>43</v>
+      <c r="I23" s="41" t="s">
+        <v>128</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L23" s="51" t="s">
-        <v>112</v>
+      <c r="L23" s="45" t="s">
+        <v>110</v>
       </c>
       <c r="M23" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="N23" s="45" t="s">
-        <v>119</v>
+      <c r="N23" s="41" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="51"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="46"/>
+      <c r="D24" s="42"/>
       <c r="F24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="44"/>
+      <c r="G24" s="60"/>
       <c r="H24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="46"/>
+      <c r="I24" s="42"/>
       <c r="K24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L24" s="51"/>
+      <c r="L24" s="45"/>
       <c r="M24" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N24" s="46"/>
+      <c r="N24" s="42"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" s="10" t="s">
@@ -2427,50 +2430,50 @@
         <v>2</v>
       </c>
       <c r="G25" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="51"/>
+      <c r="L25" s="45"/>
       <c r="M25" s="29" t="s">
         <v>2</v>
       </c>
       <c r="N25" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A26" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="41" t="s">
-        <v>99</v>
+      <c r="A26" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="47"/>
+      <c r="C26" s="48" t="s">
+        <v>97</v>
       </c>
       <c r="D26" s="49"/>
-      <c r="F26" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="G26" s="48"/>
-      <c r="H26" s="41" t="s">
+      <c r="F26" s="46" t="s">
         <v>93</v>
       </c>
+      <c r="G26" s="47"/>
+      <c r="H26" s="48" t="s">
+        <v>91</v>
+      </c>
       <c r="I26" s="49"/>
-      <c r="K26" s="47" t="s">
+      <c r="K26" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="50"/>
-      <c r="M26" s="41" t="s">
+      <c r="L26" s="66"/>
+      <c r="M26" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="42"/>
+      <c r="N26" s="67"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="8" t="s">
@@ -2514,65 +2517,65 @@
       <c r="A28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="45" t="s">
-        <v>64</v>
-      </c>
       <c r="F28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G28" s="43" t="s">
+      <c r="G28" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I28" s="45" t="s">
-        <v>82</v>
-      </c>
       <c r="K28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L28" s="51" t="s">
-        <v>127</v>
+      <c r="L28" s="45" t="s">
+        <v>125</v>
       </c>
       <c r="M28" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="N28" s="52" t="s">
-        <v>128</v>
+      <c r="N28" s="68" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="44"/>
+      <c r="B29" s="60"/>
       <c r="C29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="46"/>
+      <c r="D29" s="42"/>
       <c r="F29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="44"/>
+      <c r="G29" s="60"/>
       <c r="H29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I29" s="46"/>
+      <c r="I29" s="42"/>
       <c r="K29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L29" s="51"/>
+      <c r="L29" s="45"/>
       <c r="M29" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N29" s="52"/>
+      <c r="N29" s="68"/>
     </row>
     <row r="30" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="11" t="s">
@@ -2591,25 +2594,25 @@
         <v>2</v>
       </c>
       <c r="G30" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>2</v>
       </c>
       <c r="I30" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K30" s="11" t="s">
         <v>2</v>
       </c>
       <c r="L30" s="40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M30" s="30" t="s">
         <v>2</v>
       </c>
       <c r="N30" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.4">
@@ -2617,32 +2620,26 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="N23:N24"/>
     <mergeCell ref="L18:L20"/>
     <mergeCell ref="G18:G20"/>
     <mergeCell ref="I14:I15"/>
@@ -2659,26 +2656,32 @@
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="M16:N16"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2716,58 +2719,58 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="1:14" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="61" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="53"/>
+      <c r="K2" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="60"/>
-      <c r="K2" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="60"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="53"/>
     </row>
     <row r="3" spans="1:14" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
+      <c r="B3" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
       <c r="F3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="63"/>
-      <c r="I3" s="64"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
       <c r="K3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="62" t="s">
+      <c r="L3" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="63"/>
-      <c r="N3" s="64"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="57"/>
     </row>
     <row r="4" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>16</v>
@@ -2779,7 +2782,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>16</v>
@@ -2791,7 +2794,7 @@
         <v>15</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>16</v>
@@ -2815,30 +2818,30 @@
       <c r="N5" s="23"/>
     </row>
     <row r="6" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48" t="s">
+      <c r="B6" s="47"/>
+      <c r="C6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="F6" s="47" t="s">
+      <c r="D6" s="50"/>
+      <c r="F6" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48" t="s">
+      <c r="G6" s="47"/>
+      <c r="H6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="57"/>
-      <c r="K6" s="47" t="s">
+      <c r="I6" s="50"/>
+      <c r="K6" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48" t="s">
+      <c r="L6" s="47"/>
+      <c r="M6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="57"/>
+      <c r="N6" s="50"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
@@ -2883,36 +2886,36 @@
         <v>0</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="58" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="41" t="s">
         <v>20</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="43" t="s">
+      <c r="L8" s="58" t="s">
         <v>29</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N8" s="45" t="s">
+      <c r="N8" s="41" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2920,49 +2923,49 @@
       <c r="A9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="43" t="s">
-        <v>118</v>
+      <c r="B9" s="58" t="s">
+        <v>116</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="45" t="s">
-        <v>117</v>
+      <c r="D9" s="41" t="s">
+        <v>115</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="53"/>
+      <c r="G9" s="59"/>
       <c r="H9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="56"/>
+      <c r="I9" s="63"/>
       <c r="K9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="44"/>
+      <c r="L9" s="60"/>
       <c r="M9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="46"/>
+      <c r="N9" s="42"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="44"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="46"/>
+      <c r="D10" s="42"/>
       <c r="F10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="44"/>
+      <c r="G10" s="60"/>
       <c r="H10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="46"/>
+      <c r="I10" s="42"/>
       <c r="K10" s="10" t="s">
         <v>2</v>
       </c>
@@ -2977,27 +2980,27 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="41" t="s">
+      <c r="B11" s="47"/>
+      <c r="C11" s="48" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="49"/>
-      <c r="F11" s="47" t="s">
+      <c r="F11" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="41" t="s">
+      <c r="G11" s="47"/>
+      <c r="H11" s="48" t="s">
         <v>8</v>
       </c>
       <c r="I11" s="49"/>
-      <c r="K11" s="47" t="s">
+      <c r="K11" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="48"/>
-      <c r="M11" s="41" t="s">
+      <c r="L11" s="47"/>
+      <c r="M11" s="48" t="s">
         <v>8</v>
       </c>
       <c r="N11" s="49"/>
@@ -3045,13 +3048,13 @@
         <v>0</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>0</v>
@@ -3068,13 +3071,13 @@
       <c r="K13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="43" t="s">
+      <c r="L13" s="58" t="s">
         <v>36</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N13" s="45" t="s">
+      <c r="N13" s="41" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3082,14 +3085,14 @@
       <c r="A14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="43" t="s">
-        <v>44</v>
+      <c r="B14" s="58" t="s">
+        <v>43</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="45" t="s">
-        <v>44</v>
+      <c r="D14" s="41" t="s">
+        <v>43</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>1</v>
@@ -3106,21 +3109,21 @@
       <c r="K14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="53"/>
+      <c r="L14" s="59"/>
       <c r="M14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N14" s="56"/>
+      <c r="N14" s="63"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="44"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="46"/>
+      <c r="D15" s="42"/>
       <c r="F15" s="10" t="s">
         <v>2</v>
       </c>
@@ -3136,34 +3139,34 @@
       <c r="K15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L15" s="44"/>
+      <c r="L15" s="60"/>
       <c r="M15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N15" s="46"/>
+      <c r="N15" s="42"/>
     </row>
     <row r="16" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="41" t="s">
+      <c r="B16" s="47"/>
+      <c r="C16" s="48" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="49"/>
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="48"/>
-      <c r="H16" s="41" t="s">
+      <c r="G16" s="47"/>
+      <c r="H16" s="48" t="s">
         <v>10</v>
       </c>
       <c r="I16" s="49"/>
-      <c r="K16" s="47" t="s">
+      <c r="K16" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="48"/>
-      <c r="M16" s="41" t="s">
+      <c r="L16" s="47"/>
+      <c r="M16" s="48" t="s">
         <v>10</v>
       </c>
       <c r="N16" s="49"/>
@@ -3211,30 +3214,30 @@
         <v>0</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="43" t="s">
+      <c r="G18" s="58" t="s">
         <v>24</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="45" t="s">
+      <c r="I18" s="41" t="s">
         <v>25</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="43" t="s">
+      <c r="L18" s="58" t="s">
         <v>40</v>
       </c>
       <c r="M18" s="29" t="s">
@@ -3248,31 +3251,31 @@
       <c r="A19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="58" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="41" t="s">
         <v>38</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="53"/>
+      <c r="G19" s="59"/>
       <c r="H19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I19" s="56"/>
+      <c r="I19" s="63"/>
       <c r="K19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="53"/>
+      <c r="L19" s="59"/>
       <c r="M19" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N19" s="56" t="s">
+      <c r="N19" s="63" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3280,50 +3283,50 @@
       <c r="A20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="44"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="46"/>
+      <c r="D20" s="42"/>
       <c r="F20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="44"/>
+      <c r="G20" s="60"/>
       <c r="H20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I20" s="46"/>
+      <c r="I20" s="42"/>
       <c r="K20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="44"/>
+      <c r="L20" s="60"/>
       <c r="M20" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N20" s="46"/>
+      <c r="N20" s="42"/>
     </row>
     <row r="21" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="41" t="s">
+      <c r="B21" s="47"/>
+      <c r="C21" s="48" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="49"/>
-      <c r="F21" s="47" t="s">
+      <c r="F21" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="48"/>
-      <c r="H21" s="41" t="s">
+      <c r="G21" s="47"/>
+      <c r="H21" s="48" t="s">
         <v>12</v>
       </c>
       <c r="I21" s="49"/>
-      <c r="K21" s="47" t="s">
+      <c r="K21" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="50"/>
-      <c r="M21" s="41" t="s">
+      <c r="L21" s="66"/>
+      <c r="M21" s="48" t="s">
         <v>12</v>
       </c>
       <c r="N21" s="49"/>
@@ -3371,36 +3374,36 @@
         <v>0</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="43" t="s">
+      <c r="G23" s="58" t="s">
         <v>26</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I23" s="45" t="s">
+      <c r="I23" s="41" t="s">
         <v>27</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L23" s="43" t="s">
+      <c r="L23" s="58" t="s">
         <v>34</v>
       </c>
       <c r="M23" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="N23" s="45" t="s">
+      <c r="N23" s="41" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3408,83 +3411,83 @@
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="58" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="45" t="s">
+      <c r="D24" s="41" t="s">
         <v>38</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="53"/>
+      <c r="G24" s="59"/>
       <c r="H24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="56"/>
+      <c r="I24" s="63"/>
       <c r="K24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L24" s="53"/>
+      <c r="L24" s="59"/>
       <c r="M24" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N24" s="56"/>
+      <c r="N24" s="63"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="44"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="46"/>
+      <c r="D25" s="42"/>
       <c r="F25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G25" s="44"/>
+      <c r="G25" s="60"/>
       <c r="H25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I25" s="46"/>
+      <c r="I25" s="42"/>
       <c r="K25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="44"/>
+      <c r="L25" s="60"/>
       <c r="M25" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N25" s="46"/>
+      <c r="N25" s="42"/>
     </row>
     <row r="26" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="41" t="s">
+      <c r="B26" s="47"/>
+      <c r="C26" s="48" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="49"/>
-      <c r="F26" s="47" t="s">
+      <c r="F26" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="48"/>
-      <c r="H26" s="41" t="s">
+      <c r="G26" s="47"/>
+      <c r="H26" s="48" t="s">
         <v>14</v>
       </c>
       <c r="I26" s="49"/>
-      <c r="K26" s="47" t="s">
+      <c r="K26" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="50"/>
-      <c r="M26" s="41" t="s">
+      <c r="L26" s="66"/>
+      <c r="M26" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="42"/>
+      <c r="N26" s="67"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="8" t="s">
@@ -3529,18 +3532,18 @@
         <v>0</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G28" s="43" t="s">
+      <c r="G28" s="58" t="s">
         <v>28</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -3552,69 +3555,69 @@
       <c r="K28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L28" s="43" t="s">
+      <c r="L28" s="58" t="s">
         <v>34</v>
       </c>
       <c r="M28" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="N28" s="45" t="s">
-        <v>126</v>
+      <c r="N28" s="41" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="58" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="45" t="s">
+      <c r="D29" s="41" t="s">
         <v>38</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="53"/>
+      <c r="G29" s="59"/>
       <c r="H29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I29" s="45" t="s">
-        <v>120</v>
+      <c r="I29" s="41" t="s">
+        <v>118</v>
       </c>
       <c r="K29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L29" s="53"/>
+      <c r="L29" s="59"/>
       <c r="M29" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N29" s="46"/>
+      <c r="N29" s="42"/>
     </row>
     <row r="30" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="70"/>
+      <c r="B30" s="69"/>
       <c r="C30" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="69"/>
+      <c r="D30" s="70"/>
       <c r="F30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="70"/>
+      <c r="G30" s="69"/>
       <c r="H30" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I30" s="69"/>
+      <c r="I30" s="70"/>
       <c r="K30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L30" s="70"/>
+      <c r="L30" s="69"/>
       <c r="M30" s="30" t="s">
         <v>2</v>
       </c>
@@ -3624,14 +3627,46 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L28:L30"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="K6:L6"/>
@@ -3648,46 +3683,14 @@
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="G8:G10"/>
     <mergeCell ref="I8:I10"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L28:L30"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="N23:N25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/강의계획표(프론트과정_평일)_현상원강사_0.2v.xlsx
+++ b/강의계획표(프론트과정_평일)_현상원강사_0.2v.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\상원\Desktop\workspaces\IT_KOREA_HTML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CEO\Desktop\IT_KOREA_HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32B0D5A-0464-49BE-A462-80BCD462044F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938CC483-2019-4503-8513-61FF4A0E34C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{CD66654A-5DAE-49BF-8CB0-B1827AC1716E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD66654A-5DAE-49BF-8CB0-B1827AC1716E}"/>
   </bookViews>
   <sheets>
     <sheet name="curriculum1-3" sheetId="2" r:id="rId1"/>
@@ -418,16 +418,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Javascript 기초 &amp;
-네이버 회원가입 만들기1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Javascript 기초 &amp;
-네이버 회원가입 만들기2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>최초 작성일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -640,7 +630,17 @@
   </si>
   <si>
     <t>Javascript 기초
-If, for, while</t>
+If</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript 기초
+for, while</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript 기초
+회원가입 로직 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1255,94 +1255,94 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1664,78 +1664,78 @@
   </sheetPr>
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.09765625" customWidth="1"/>
-    <col min="2" max="2" width="21.09765625" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="21.8984375" customWidth="1"/>
+    <col min="4" max="4" width="21.875" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="14.09765625" customWidth="1"/>
-    <col min="7" max="7" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="20.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.19921875" customWidth="1"/>
-    <col min="12" max="12" width="16.3984375" customWidth="1"/>
-    <col min="13" max="13" width="14.8984375" customWidth="1"/>
+    <col min="9" max="9" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.25" customWidth="1"/>
+    <col min="12" max="12" width="16.375" customWidth="1"/>
+    <col min="13" max="13" width="14.875" customWidth="1"/>
     <col min="14" max="14" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:14" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="51" t="s">
+    <row r="1" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="53"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="62"/>
       <c r="E2" s="26"/>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="53"/>
-      <c r="K2" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="53"/>
-    </row>
-    <row r="3" spans="1:14" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="62"/>
+      <c r="K2" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="62"/>
+    </row>
+    <row r="3" spans="1:14" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="66"/>
       <c r="F3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
+      <c r="G3" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="65"/>
+      <c r="I3" s="66"/>
       <c r="K3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="M3" s="56"/>
-      <c r="N3" s="57"/>
-    </row>
-    <row r="4" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L3" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" s="65"/>
+      <c r="N3" s="66"/>
+    </row>
+    <row r="4" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>46</v>
@@ -1747,7 +1747,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>46</v>
@@ -1759,7 +1759,7 @@
         <v>17</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>46</v>
@@ -1771,7 +1771,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="25"/>
       <c r="B5" s="22"/>
       <c r="C5" s="24"/>
@@ -1785,33 +1785,33 @@
       <c r="M5" s="24"/>
       <c r="N5" s="23"/>
     </row>
-    <row r="6" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A6" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="50"/>
-      <c r="F6" s="46" t="s">
+    <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="57"/>
+      <c r="F6" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47" t="s">
+      <c r="G6" s="48"/>
+      <c r="H6" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="50"/>
-      <c r="K6" s="46" t="s">
+      <c r="I6" s="57"/>
+      <c r="K6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47" t="s">
+      <c r="L6" s="48"/>
+      <c r="M6" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="50"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N6" s="57"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="31.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="31.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
@@ -1859,35 +1859,35 @@
       <c r="C8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="45" t="s">
         <v>53</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="67" t="s">
         <v>74</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="64" t="s">
-        <v>107</v>
+      <c r="L8" s="58" t="s">
+        <v>105</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N8" s="41" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N8" s="45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>1</v>
       </c>
@@ -1897,27 +1897,27 @@
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="42"/>
+      <c r="D9" s="46"/>
       <c r="F9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="44"/>
+      <c r="G9" s="68"/>
       <c r="H9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="65"/>
+      <c r="L9" s="59"/>
       <c r="M9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="42"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N9" s="46"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
@@ -1934,13 +1934,13 @@
         <v>2</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>2</v>
@@ -1955,33 +1955,33 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A11" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48" t="s">
-        <v>106</v>
+    <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="48"/>
+      <c r="C11" s="41" t="s">
+        <v>104</v>
       </c>
       <c r="D11" s="49"/>
-      <c r="F11" s="46" t="s">
+      <c r="F11" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="47"/>
-      <c r="H11" s="48" t="s">
-        <v>96</v>
+      <c r="G11" s="48"/>
+      <c r="H11" s="41" t="s">
+        <v>94</v>
       </c>
       <c r="I11" s="49"/>
-      <c r="K11" s="46" t="s">
+      <c r="K11" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="47"/>
-      <c r="M11" s="48" t="s">
+      <c r="L11" s="48"/>
+      <c r="M11" s="41" t="s">
         <v>8</v>
       </c>
       <c r="N11" s="49"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>3</v>
       </c>
@@ -2019,24 +2019,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="51" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="45" t="s">
         <v>61</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>0</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>0</v>
@@ -2047,47 +2047,47 @@
       <c r="K13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="58" t="s">
-        <v>108</v>
+      <c r="L13" s="43" t="s">
+        <v>106</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N13" s="41" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N13" s="45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="45"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="42"/>
+      <c r="D14" s="46"/>
       <c r="F14" s="10" t="s">
         <v>1</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="61" t="s">
+      <c r="I14" s="54" t="s">
         <v>66</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="60"/>
+      <c r="L14" s="44"/>
       <c r="M14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N14" s="42"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N14" s="46"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>2</v>
       </c>
@@ -2109,7 +2109,7 @@
       <c r="H15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="62"/>
+      <c r="I15" s="55"/>
       <c r="K15" s="10" t="s">
         <v>2</v>
       </c>
@@ -2123,33 +2123,33 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A16" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48" t="s">
-        <v>101</v>
+    <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="48"/>
+      <c r="C16" s="41" t="s">
+        <v>99</v>
       </c>
       <c r="D16" s="49"/>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="G16" s="47"/>
-      <c r="H16" s="48" t="s">
+      <c r="G16" s="48"/>
+      <c r="H16" s="41" t="s">
         <v>78</v>
       </c>
       <c r="I16" s="49"/>
-      <c r="K16" s="46" t="s">
+      <c r="K16" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="47"/>
-      <c r="M16" s="48" t="s">
+      <c r="L16" s="48"/>
+      <c r="M16" s="41" t="s">
         <v>10</v>
       </c>
       <c r="N16" s="49"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>3</v>
       </c>
@@ -2187,23 +2187,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="51" t="s">
         <v>57</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="45" t="s">
         <v>52</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="58" t="s">
+      <c r="G18" s="43" t="s">
         <v>51</v>
       </c>
       <c r="H18" s="3" t="s">
@@ -2215,29 +2215,29 @@
       <c r="K18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="58" t="s">
-        <v>112</v>
+      <c r="L18" s="43" t="s">
+        <v>110</v>
       </c>
       <c r="M18" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="N18" s="41" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N18" s="45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="45"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="42"/>
+      <c r="D19" s="46"/>
       <c r="F19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="59"/>
+      <c r="G19" s="53"/>
       <c r="H19" s="3" t="s">
         <v>1</v>
       </c>
@@ -2247,13 +2247,13 @@
       <c r="K19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="59"/>
+      <c r="L19" s="53"/>
       <c r="M19" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N19" s="63"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N19" s="56"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>2</v>
       </c>
@@ -2269,7 +2269,7 @@
       <c r="F20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="60"/>
+      <c r="G20" s="44"/>
       <c r="H20" s="3" t="s">
         <v>2</v>
       </c>
@@ -2279,39 +2279,39 @@
       <c r="K20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="60"/>
+      <c r="L20" s="44"/>
       <c r="M20" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N20" s="42"/>
-    </row>
-    <row r="21" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A21" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="48" t="s">
-        <v>99</v>
+      <c r="N20" s="46"/>
+    </row>
+    <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="48"/>
+      <c r="C21" s="41" t="s">
+        <v>97</v>
       </c>
       <c r="D21" s="49"/>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="48"/>
+      <c r="H21" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48" t="s">
-        <v>92</v>
-      </c>
       <c r="I21" s="49"/>
-      <c r="K21" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="L21" s="66"/>
-      <c r="M21" s="48" t="s">
+      <c r="K21" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="L21" s="50"/>
+      <c r="M21" s="41" t="s">
         <v>12</v>
       </c>
       <c r="N21" s="49"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>3</v>
       </c>
@@ -2349,71 +2349,71 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="51" t="s">
         <v>56</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="45" t="s">
         <v>58</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="58" t="s">
-        <v>127</v>
+      <c r="G23" s="43" t="s">
+        <v>125</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I23" s="41" t="s">
-        <v>128</v>
+      <c r="I23" s="45" t="s">
+        <v>126</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L23" s="45" t="s">
-        <v>110</v>
+      <c r="L23" s="51" t="s">
+        <v>108</v>
       </c>
       <c r="M23" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="N23" s="41" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N23" s="45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="45"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="42"/>
+      <c r="D24" s="46"/>
       <c r="F24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="60"/>
+      <c r="G24" s="44"/>
       <c r="H24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="42"/>
+      <c r="I24" s="46"/>
       <c r="K24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L24" s="45"/>
+      <c r="L24" s="51"/>
       <c r="M24" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N24" s="42"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N24" s="46"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>2</v>
       </c>
@@ -2441,7 +2441,7 @@
       <c r="K25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="45"/>
+      <c r="L25" s="51"/>
       <c r="M25" s="29" t="s">
         <v>2</v>
       </c>
@@ -2449,33 +2449,33 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A26" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="48" t="s">
-        <v>97</v>
+    <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="48"/>
+      <c r="C26" s="41" t="s">
+        <v>95</v>
       </c>
       <c r="D26" s="49"/>
-      <c r="F26" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="G26" s="47"/>
-      <c r="H26" s="48" t="s">
+      <c r="F26" s="47" t="s">
         <v>91</v>
       </c>
+      <c r="G26" s="48"/>
+      <c r="H26" s="41" t="s">
+        <v>89</v>
+      </c>
       <c r="I26" s="49"/>
-      <c r="K26" s="46" t="s">
+      <c r="K26" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="66"/>
-      <c r="M26" s="48" t="s">
+      <c r="L26" s="50"/>
+      <c r="M26" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="67"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N26" s="42"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>3</v>
       </c>
@@ -2513,71 +2513,71 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="43" t="s">
         <v>62</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="45" t="s">
         <v>63</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G28" s="58" t="s">
-        <v>80</v>
+      <c r="G28" s="43" t="s">
+        <v>127</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I28" s="41" t="s">
-        <v>81</v>
+      <c r="I28" s="45" t="s">
+        <v>128</v>
       </c>
       <c r="K28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L28" s="45" t="s">
-        <v>125</v>
+      <c r="L28" s="51" t="s">
+        <v>123</v>
       </c>
       <c r="M28" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="N28" s="68" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N28" s="52" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="60"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="42"/>
+      <c r="D29" s="46"/>
       <c r="F29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="60"/>
+      <c r="G29" s="44"/>
       <c r="H29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I29" s="42"/>
+      <c r="I29" s="46"/>
       <c r="K29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L29" s="45"/>
+      <c r="L29" s="51"/>
       <c r="M29" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N29" s="68"/>
-    </row>
-    <row r="30" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="N29" s="52"/>
+    </row>
+    <row r="30" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>2</v>
       </c>
@@ -2615,31 +2615,37 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C31" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="L3:N3"/>
     <mergeCell ref="L18:L20"/>
     <mergeCell ref="G18:G20"/>
     <mergeCell ref="I14:I15"/>
@@ -2656,32 +2662,26 @@
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="M16:N16"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="N28:N29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2700,72 +2700,72 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.09765625" customWidth="1"/>
-    <col min="2" max="2" width="21.09765625" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="21.8984375" customWidth="1"/>
+    <col min="4" max="4" width="21.875" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="14.09765625" customWidth="1"/>
-    <col min="7" max="7" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="20.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.19921875" customWidth="1"/>
-    <col min="12" max="12" width="16.3984375" customWidth="1"/>
-    <col min="13" max="13" width="14.8984375" customWidth="1"/>
+    <col min="9" max="9" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.25" customWidth="1"/>
+    <col min="12" max="12" width="16.375" customWidth="1"/>
+    <col min="13" max="13" width="14.875" customWidth="1"/>
     <col min="14" max="14" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:14" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="54" t="s">
+    <row r="1" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="53"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="62"/>
       <c r="E2" s="26"/>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="53"/>
-      <c r="K2" s="54" t="s">
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="62"/>
+      <c r="K2" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="53"/>
-    </row>
-    <row r="3" spans="1:14" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="62"/>
+    </row>
+    <row r="3" spans="1:14" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="66"/>
       <c r="F3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="66"/>
       <c r="K3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="55" t="s">
+      <c r="L3" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="56"/>
-      <c r="N3" s="57"/>
-    </row>
-    <row r="4" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M3" s="65"/>
+      <c r="N3" s="66"/>
+    </row>
+    <row r="4" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="25"/>
       <c r="B5" s="22"/>
       <c r="C5" s="24"/>
@@ -2817,33 +2817,33 @@
       <c r="M5" s="24"/>
       <c r="N5" s="23"/>
     </row>
-    <row r="6" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A6" s="46" t="s">
+    <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47" t="s">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="F6" s="46" t="s">
+      <c r="D6" s="57"/>
+      <c r="F6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47" t="s">
+      <c r="G6" s="48"/>
+      <c r="H6" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="50"/>
-      <c r="K6" s="46" t="s">
+      <c r="I6" s="57"/>
+      <c r="K6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47" t="s">
+      <c r="L6" s="48"/>
+      <c r="M6" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="50"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N6" s="57"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
@@ -2881,91 +2881,91 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N8" s="41" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>115</v>
-      </c>
       <c r="F9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="59"/>
+      <c r="G9" s="53"/>
       <c r="H9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="63"/>
+      <c r="I9" s="56"/>
       <c r="K9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="60"/>
+      <c r="L9" s="44"/>
       <c r="M9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="42"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N9" s="46"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="60"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="42"/>
+      <c r="D10" s="46"/>
       <c r="F10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="60"/>
+      <c r="G10" s="44"/>
       <c r="H10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="42"/>
+      <c r="I10" s="46"/>
       <c r="K10" s="10" t="s">
         <v>2</v>
       </c>
@@ -2979,33 +2979,33 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A11" s="46" t="s">
+    <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48" t="s">
+      <c r="B11" s="48"/>
+      <c r="C11" s="41" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="49"/>
-      <c r="F11" s="46" t="s">
+      <c r="F11" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="47"/>
-      <c r="H11" s="48" t="s">
+      <c r="G11" s="48"/>
+      <c r="H11" s="41" t="s">
         <v>8</v>
       </c>
       <c r="I11" s="49"/>
-      <c r="K11" s="46" t="s">
+      <c r="K11" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="47"/>
-      <c r="M11" s="48" t="s">
+      <c r="L11" s="48"/>
+      <c r="M11" s="41" t="s">
         <v>8</v>
       </c>
       <c r="N11" s="49"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>3</v>
       </c>
@@ -3043,18 +3043,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>0</v>
@@ -3071,27 +3071,27 @@
       <c r="K13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="58" t="s">
+      <c r="L13" s="43" t="s">
         <v>36</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N13" s="41" t="s">
+      <c r="N13" s="45" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="43" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="45" t="s">
         <v>43</v>
       </c>
       <c r="F14" s="10" t="s">
@@ -3109,21 +3109,21 @@
       <c r="K14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="59"/>
+      <c r="L14" s="53"/>
       <c r="M14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N14" s="63"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N14" s="56"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="60"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="42"/>
+      <c r="D15" s="46"/>
       <c r="F15" s="10" t="s">
         <v>2</v>
       </c>
@@ -3139,39 +3139,39 @@
       <c r="K15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L15" s="60"/>
+      <c r="L15" s="44"/>
       <c r="M15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N15" s="42"/>
-    </row>
-    <row r="16" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A16" s="46" t="s">
+      <c r="N15" s="46"/>
+    </row>
+    <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48" t="s">
+      <c r="B16" s="48"/>
+      <c r="C16" s="41" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="49"/>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="47"/>
-      <c r="H16" s="48" t="s">
+      <c r="G16" s="48"/>
+      <c r="H16" s="41" t="s">
         <v>10</v>
       </c>
       <c r="I16" s="49"/>
-      <c r="K16" s="46" t="s">
+      <c r="K16" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="47"/>
-      <c r="M16" s="48" t="s">
+      <c r="L16" s="48"/>
+      <c r="M16" s="41" t="s">
         <v>10</v>
       </c>
       <c r="N16" s="49"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>3</v>
       </c>
@@ -3209,35 +3209,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="58" t="s">
+      <c r="G18" s="43" t="s">
         <v>24</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="41" t="s">
+      <c r="I18" s="45" t="s">
         <v>25</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="58" t="s">
+      <c r="L18" s="43" t="s">
         <v>40</v>
       </c>
       <c r="M18" s="29" t="s">
@@ -3247,91 +3247,91 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="43" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="45" t="s">
         <v>38</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="59"/>
+      <c r="G19" s="53"/>
       <c r="H19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I19" s="63"/>
+      <c r="I19" s="56"/>
       <c r="K19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="59"/>
+      <c r="L19" s="53"/>
       <c r="M19" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N19" s="63" t="s">
+      <c r="N19" s="56" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="60"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="42"/>
+      <c r="D20" s="46"/>
       <c r="F20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="60"/>
+      <c r="G20" s="44"/>
       <c r="H20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I20" s="42"/>
+      <c r="I20" s="46"/>
       <c r="K20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="60"/>
+      <c r="L20" s="44"/>
       <c r="M20" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N20" s="42"/>
-    </row>
-    <row r="21" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A21" s="46" t="s">
+      <c r="N20" s="46"/>
+    </row>
+    <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="48" t="s">
+      <c r="B21" s="48"/>
+      <c r="C21" s="41" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="49"/>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48" t="s">
+      <c r="G21" s="48"/>
+      <c r="H21" s="41" t="s">
         <v>12</v>
       </c>
       <c r="I21" s="49"/>
-      <c r="K21" s="46" t="s">
+      <c r="K21" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="66"/>
-      <c r="M21" s="48" t="s">
+      <c r="L21" s="50"/>
+      <c r="M21" s="41" t="s">
         <v>12</v>
       </c>
       <c r="N21" s="49"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>3</v>
       </c>
@@ -3369,127 +3369,127 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="58" t="s">
+      <c r="G23" s="43" t="s">
         <v>26</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I23" s="41" t="s">
+      <c r="I23" s="45" t="s">
         <v>27</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L23" s="58" t="s">
+      <c r="L23" s="43" t="s">
         <v>34</v>
       </c>
       <c r="M23" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="N23" s="41" t="s">
+      <c r="N23" s="45" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="43" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="45" t="s">
         <v>38</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="59"/>
+      <c r="G24" s="53"/>
       <c r="H24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="63"/>
+      <c r="I24" s="56"/>
       <c r="K24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L24" s="59"/>
+      <c r="L24" s="53"/>
       <c r="M24" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N24" s="63"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N24" s="56"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="60"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="42"/>
+      <c r="D25" s="46"/>
       <c r="F25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G25" s="60"/>
+      <c r="G25" s="44"/>
       <c r="H25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I25" s="42"/>
+      <c r="I25" s="46"/>
       <c r="K25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="60"/>
+      <c r="L25" s="44"/>
       <c r="M25" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N25" s="42"/>
-    </row>
-    <row r="26" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A26" s="46" t="s">
+      <c r="N25" s="46"/>
+    </row>
+    <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="48" t="s">
+      <c r="B26" s="48"/>
+      <c r="C26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="49"/>
-      <c r="F26" s="46" t="s">
+      <c r="F26" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="47"/>
-      <c r="H26" s="48" t="s">
+      <c r="G26" s="48"/>
+      <c r="H26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="I26" s="49"/>
-      <c r="K26" s="46" t="s">
+      <c r="K26" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="66"/>
-      <c r="M26" s="48" t="s">
+      <c r="L26" s="50"/>
+      <c r="M26" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="67"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N26" s="42"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>3</v>
       </c>
@@ -3527,23 +3527,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G28" s="58" t="s">
+      <c r="G28" s="43" t="s">
         <v>28</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -3555,69 +3555,69 @@
       <c r="K28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L28" s="58" t="s">
+      <c r="L28" s="43" t="s">
         <v>34</v>
       </c>
       <c r="M28" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="N28" s="41" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N28" s="45" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="43" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="45" t="s">
         <v>38</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="59"/>
+      <c r="G29" s="53"/>
       <c r="H29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I29" s="41" t="s">
-        <v>118</v>
+      <c r="I29" s="45" t="s">
+        <v>116</v>
       </c>
       <c r="K29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L29" s="59"/>
+      <c r="L29" s="53"/>
       <c r="M29" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N29" s="42"/>
-    </row>
-    <row r="30" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="N29" s="46"/>
+    </row>
+    <row r="30" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="69"/>
+      <c r="B30" s="70"/>
       <c r="C30" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="70"/>
+      <c r="D30" s="69"/>
       <c r="F30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="69"/>
+      <c r="G30" s="70"/>
       <c r="H30" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I30" s="70"/>
+      <c r="I30" s="69"/>
       <c r="K30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L30" s="69"/>
+      <c r="L30" s="70"/>
       <c r="M30" s="30" t="s">
         <v>2</v>
       </c>
@@ -3627,6 +3627,54 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="G18:G20"/>
     <mergeCell ref="I29:I30"/>
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="N8:N9"/>
@@ -3643,54 +3691,6 @@
     <mergeCell ref="L28:L30"/>
     <mergeCell ref="N28:N29"/>
     <mergeCell ref="L13:L15"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="N23:N25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/강의계획표(프론트과정_평일)_현상원강사_0.2v.xlsx
+++ b/강의계획표(프론트과정_평일)_현상원강사_0.2v.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CEO\Desktop\IT_KOREA_HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938CC483-2019-4503-8513-61FF4A0E34C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5071C5D-D0D8-464F-B7EA-7A4B3CAE1E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD66654A-5DAE-49BF-8CB0-B1827AC1716E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD66654A-5DAE-49BF-8CB0-B1827AC1716E}"/>
   </bookViews>
   <sheets>
     <sheet name="curriculum1-3" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="138">
   <si>
     <t>19:00 ~ 19:50</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -434,6 +434,231 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>싱글 사이트 제작 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drop Menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1회차 복습
+가상선택자, Position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싱글 사이트 제작 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7회차(4월 2일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10회차(4월 8일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8회차(4월 4일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9회차(4월 5일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반응형 개념 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반응형 개념 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4회차(3월 21일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10회차(3월 7일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9회차(3월 5일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8회차(2월 29일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7회차(2월 27일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6회차(2월 22일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5회차(2월 20일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1회차(2월 8일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2회차(2월 13일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3회차(2월 15일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4회차(2월 16일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">React을 위한 ES6 프로그래밍 기초
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>React을 위한 ES6 프로그래밍 기초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴포넌트 개념 2
+React 레이아웃과
+일반 레이아웃 비교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴포넌트 개념 1
+React 레이아웃과
+일반 레이아웃 비교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>React 환경 세팅 및 개념
+Git 기본문법</t>
+  </si>
+  <si>
+    <t>리액트 기초 - state 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리액트 기초 - state 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">구현 실습 - form </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현 실습 - form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>React 기초
+컴포넌트 계층 구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>React 마무리 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리액트 기초 -Event Hook 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리액트 기초 -Event Hook 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리액트 기초 -Event Hook 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리액트 기초 - Routes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리액트 기초 - 상태 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포트폴리오 작성법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>React
+조건부 렌더링 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>React
+조건부 렌더링 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript 기초
+기본 DOM 접근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript 기초
+If</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript 기초
+for, while</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript 기초
+회원가입 로직 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1회차(4월 9일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2회차(4월 11일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3회차(4월 16일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4회차(4월 18일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5회차(4월 19일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7회차(4월 25일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8회차(4월 30일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9회차(5월 2일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10회차(5월 7일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">프론트 엔드3 </t>
     </r>
@@ -447,200 +672,12 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(24.04.09 ~ 24.05.)</t>
+      <t>(24.04.09 ~ 24.05.07)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>싱글 사이트 제작 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Drop Menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1회차 복습
-가상선택자, Position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>싱글 사이트 제작 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7회차(4월 2일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10회차(4월 8일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8회차(4월 4일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9회차(4월 5일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반응형 개념 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반응형 개념 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4회차(3월 21일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10회차(3월 7일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9회차(3월 5일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8회차(2월 29일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7회차(2월 27일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6회차(2월 22일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5회차(2월 20일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1회차(2월 8일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2회차(2월 13일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3회차(2월 15일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4회차(2월 16일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">React을 위한 ES6 프로그래밍 기초
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>React을 위한 ES6 프로그래밍 기초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7회차</t>
-  </si>
-  <si>
-    <t>컴포넌트 개념 2
-React 레이아웃과
-일반 레이아웃 비교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴포넌트 개념 1
-React 레이아웃과
-일반 레이아웃 비교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>React 환경 세팅 및 개념
-Git 기본문법</t>
-  </si>
-  <si>
-    <t>리액트 기초 - state 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리액트 기초 - state 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">구현 실습 - form </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구현 실습 - form</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>React 기초
-컴포넌트 계층 구조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>React 마무리 정리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리액트 기초 -Event Hook 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리액트 기초 -Event Hook 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리액트 기초 -Event Hook 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리액트 기초 - Routes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리액트 기초 - 상태 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포트폴리오 작성법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>React
-조건부 렌더링 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>React
-조건부 렌더링 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Javascript 기초
-기본 DOM 접근</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Javascript 기초
-If</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Javascript 기초
-for, while</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Javascript 기초
-회원가입 로직 구현</t>
+    <t>6회차(4월 23일) 리액트 시작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,7 +685,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -732,6 +769,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1131,7 +1177,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1255,95 +1301,101 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1665,7 +1717,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="M16" sqref="M16:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1687,51 +1739,51 @@
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="53"/>
       <c r="E2" s="26"/>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="62"/>
-      <c r="K2" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="62"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="53"/>
+      <c r="K2" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="53"/>
     </row>
     <row r="3" spans="1:14" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
       <c r="F3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="64" t="s">
+      <c r="G3" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="65"/>
-      <c r="I3" s="66"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
       <c r="K3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="64" t="s">
+      <c r="L3" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="M3" s="65"/>
-      <c r="N3" s="66"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="57"/>
     </row>
     <row r="4" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -1786,30 +1838,30 @@
       <c r="N5" s="23"/>
     </row>
     <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="57"/>
-      <c r="F6" s="47" t="s">
+      <c r="D6" s="50"/>
+      <c r="F6" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48" t="s">
+      <c r="G6" s="47"/>
+      <c r="H6" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="57"/>
-      <c r="K6" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="N6" s="57"/>
+      <c r="I6" s="50"/>
+      <c r="K6" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="N6" s="50"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -1859,32 +1911,32 @@
       <c r="C8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="41" t="s">
         <v>53</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="67" t="s">
+      <c r="G8" s="43" t="s">
         <v>74</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="58" t="s">
+      <c r="L8" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="41" t="s">
         <v>105</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N8" s="45" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -1897,25 +1949,25 @@
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="46"/>
+      <c r="D9" s="42"/>
       <c r="F9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="68"/>
+      <c r="G9" s="44"/>
       <c r="H9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="59"/>
+      <c r="L9" s="65"/>
       <c r="M9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="46"/>
+      <c r="N9" s="42"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
@@ -1934,13 +1986,13 @@
         <v>2</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>2</v>
@@ -1956,28 +2008,28 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="41" t="s">
-        <v>104</v>
-      </c>
       <c r="D11" s="49"/>
-      <c r="F11" s="47" t="s">
+      <c r="F11" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="41" t="s">
-        <v>94</v>
+      <c r="G11" s="47"/>
+      <c r="H11" s="48" t="s">
+        <v>93</v>
       </c>
       <c r="I11" s="49"/>
-      <c r="K11" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="48"/>
-      <c r="M11" s="41" t="s">
-        <v>8</v>
+      <c r="K11" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" s="47"/>
+      <c r="M11" s="48" t="s">
+        <v>130</v>
       </c>
       <c r="N11" s="49"/>
     </row>
@@ -2023,20 +2075,20 @@
       <c r="A13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="45" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="41" t="s">
         <v>61</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>0</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>0</v>
@@ -2047,45 +2099,45 @@
       <c r="K13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="43" t="s">
-        <v>106</v>
+      <c r="L13" s="58" t="s">
+        <v>105</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N13" s="45" t="s">
-        <v>106</v>
+      <c r="N13" s="41" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="46"/>
+      <c r="D14" s="42"/>
       <c r="F14" s="10" t="s">
         <v>1</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="54" t="s">
+      <c r="I14" s="61" t="s">
         <v>66</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="44"/>
+      <c r="L14" s="60"/>
       <c r="M14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N14" s="46"/>
+      <c r="N14" s="42"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
@@ -2109,7 +2161,7 @@
       <c r="H15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="55"/>
+      <c r="I15" s="62"/>
       <c r="K15" s="10" t="s">
         <v>2</v>
       </c>
@@ -2124,30 +2176,30 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="41" t="s">
+      <c r="A16" s="46" t="s">
         <v>99</v>
       </c>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48" t="s">
+        <v>98</v>
+      </c>
       <c r="D16" s="49"/>
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="G16" s="48"/>
-      <c r="H16" s="41" t="s">
+      <c r="G16" s="47"/>
+      <c r="H16" s="48" t="s">
         <v>78</v>
       </c>
       <c r="I16" s="49"/>
-      <c r="K16" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="L16" s="48"/>
-      <c r="M16" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="N16" s="49"/>
+      <c r="K16" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="L16" s="47"/>
+      <c r="M16" s="71" t="s">
+        <v>137</v>
+      </c>
+      <c r="N16" s="72"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
@@ -2191,19 +2243,19 @@
       <c r="A18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="45" t="s">
         <v>57</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="45" t="s">
+      <c r="D18" s="41" t="s">
         <v>52</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="43" t="s">
+      <c r="G18" s="58" t="s">
         <v>51</v>
       </c>
       <c r="H18" s="3" t="s">
@@ -2215,29 +2267,29 @@
       <c r="K18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="43" t="s">
-        <v>110</v>
+      <c r="L18" s="58" t="s">
+        <v>108</v>
       </c>
       <c r="M18" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="N18" s="45" t="s">
-        <v>109</v>
+      <c r="N18" s="41" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="51"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="46"/>
+      <c r="D19" s="42"/>
       <c r="F19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="53"/>
+      <c r="G19" s="59"/>
       <c r="H19" s="3" t="s">
         <v>1</v>
       </c>
@@ -2247,11 +2299,11 @@
       <c r="K19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="53"/>
+      <c r="L19" s="59"/>
       <c r="M19" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N19" s="56"/>
+      <c r="N19" s="63"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
@@ -2269,7 +2321,7 @@
       <c r="F20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="44"/>
+      <c r="G20" s="60"/>
       <c r="H20" s="3" t="s">
         <v>2</v>
       </c>
@@ -2279,35 +2331,35 @@
       <c r="K20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="44"/>
+      <c r="L20" s="60"/>
       <c r="M20" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N20" s="46"/>
+      <c r="N20" s="42"/>
     </row>
     <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="41" t="s">
+      <c r="A21" s="46" t="s">
         <v>97</v>
       </c>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48" t="s">
+        <v>96</v>
+      </c>
       <c r="D21" s="49"/>
-      <c r="F21" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" s="48"/>
-      <c r="H21" s="41" t="s">
-        <v>90</v>
+      <c r="F21" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="47"/>
+      <c r="H21" s="48" t="s">
+        <v>89</v>
       </c>
       <c r="I21" s="49"/>
-      <c r="K21" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="L21" s="50"/>
-      <c r="M21" s="41" t="s">
-        <v>12</v>
+      <c r="K21" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="L21" s="66"/>
+      <c r="M21" s="48" t="s">
+        <v>133</v>
       </c>
       <c r="N21" s="49"/>
     </row>
@@ -2353,65 +2405,65 @@
       <c r="A23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="45" t="s">
         <v>56</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="45" t="s">
+      <c r="D23" s="41" t="s">
         <v>58</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="43" t="s">
-        <v>125</v>
+      <c r="G23" s="58" t="s">
+        <v>123</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I23" s="45" t="s">
-        <v>126</v>
+      <c r="I23" s="41" t="s">
+        <v>124</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L23" s="51" t="s">
-        <v>108</v>
+      <c r="L23" s="45" t="s">
+        <v>106</v>
       </c>
       <c r="M23" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="N23" s="45" t="s">
-        <v>115</v>
+      <c r="N23" s="41" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="51"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="46"/>
+      <c r="D24" s="42"/>
       <c r="F24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="44"/>
+      <c r="G24" s="60"/>
       <c r="H24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="46"/>
+      <c r="I24" s="42"/>
       <c r="K24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L24" s="51"/>
+      <c r="L24" s="45"/>
       <c r="M24" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N24" s="46"/>
+      <c r="N24" s="42"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
@@ -2441,7 +2493,7 @@
       <c r="K25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="51"/>
+      <c r="L25" s="45"/>
       <c r="M25" s="29" t="s">
         <v>2</v>
       </c>
@@ -2450,30 +2502,30 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="41" t="s">
+      <c r="A26" s="46" t="s">
         <v>95</v>
       </c>
+      <c r="B26" s="47"/>
+      <c r="C26" s="48" t="s">
+        <v>94</v>
+      </c>
       <c r="D26" s="49"/>
-      <c r="F26" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="G26" s="48"/>
-      <c r="H26" s="41" t="s">
-        <v>89</v>
+      <c r="F26" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="47"/>
+      <c r="H26" s="48" t="s">
+        <v>88</v>
       </c>
       <c r="I26" s="49"/>
-      <c r="K26" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="L26" s="50"/>
-      <c r="M26" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="N26" s="42"/>
+      <c r="K26" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="L26" s="66"/>
+      <c r="M26" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="N26" s="67"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
@@ -2517,65 +2569,65 @@
       <c r="A28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="58" t="s">
         <v>62</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="45" t="s">
+      <c r="D28" s="41" t="s">
         <v>63</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G28" s="43" t="s">
-        <v>127</v>
+      <c r="G28" s="58" t="s">
+        <v>125</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I28" s="45" t="s">
-        <v>128</v>
+      <c r="I28" s="41" t="s">
+        <v>126</v>
       </c>
       <c r="K28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L28" s="51" t="s">
-        <v>123</v>
+      <c r="L28" s="45" t="s">
+        <v>121</v>
       </c>
       <c r="M28" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="N28" s="52" t="s">
-        <v>124</v>
+      <c r="N28" s="68" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="44"/>
+      <c r="B29" s="60"/>
       <c r="C29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="46"/>
+      <c r="D29" s="42"/>
       <c r="F29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="44"/>
+      <c r="G29" s="60"/>
       <c r="H29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I29" s="46"/>
+      <c r="I29" s="42"/>
       <c r="K29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L29" s="51"/>
+      <c r="L29" s="45"/>
       <c r="M29" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N29" s="52"/>
+      <c r="N29" s="68"/>
     </row>
     <row r="30" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
@@ -2620,32 +2672,26 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="N23:N24"/>
     <mergeCell ref="L18:L20"/>
     <mergeCell ref="G18:G20"/>
     <mergeCell ref="I14:I15"/>
@@ -2662,26 +2708,32 @@
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="M16:N16"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2719,51 +2771,51 @@
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="53"/>
       <c r="E2" s="26"/>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="62"/>
-      <c r="K2" s="63" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="53"/>
+      <c r="K2" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="62"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="53"/>
     </row>
     <row r="3" spans="1:14" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
       <c r="F3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="64" t="s">
+      <c r="G3" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="65"/>
-      <c r="I3" s="66"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
       <c r="K3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="64" t="s">
+      <c r="L3" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="65"/>
-      <c r="N3" s="66"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="57"/>
     </row>
     <row r="4" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -2818,30 +2870,30 @@
       <c r="N5" s="23"/>
     </row>
     <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48" t="s">
+      <c r="B6" s="47"/>
+      <c r="C6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="F6" s="47" t="s">
+      <c r="D6" s="50"/>
+      <c r="F6" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48" t="s">
+      <c r="G6" s="47"/>
+      <c r="H6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="57"/>
-      <c r="K6" s="47" t="s">
+      <c r="I6" s="50"/>
+      <c r="K6" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48" t="s">
+      <c r="L6" s="47"/>
+      <c r="M6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="57"/>
+      <c r="N6" s="50"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -2886,36 +2938,36 @@
         <v>0</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="58" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="41" t="s">
         <v>20</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="43" t="s">
+      <c r="L8" s="58" t="s">
         <v>29</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N8" s="45" t="s">
+      <c r="N8" s="41" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2923,49 +2975,49 @@
       <c r="A9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="43" t="s">
-        <v>114</v>
+      <c r="B9" s="58" t="s">
+        <v>112</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="45" t="s">
-        <v>113</v>
+      <c r="D9" s="41" t="s">
+        <v>111</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="53"/>
+      <c r="G9" s="59"/>
       <c r="H9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="56"/>
+      <c r="I9" s="63"/>
       <c r="K9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="44"/>
+      <c r="L9" s="60"/>
       <c r="M9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="46"/>
+      <c r="N9" s="42"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="44"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="46"/>
+      <c r="D10" s="42"/>
       <c r="F10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="44"/>
+      <c r="G10" s="60"/>
       <c r="H10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="46"/>
+      <c r="I10" s="42"/>
       <c r="K10" s="10" t="s">
         <v>2</v>
       </c>
@@ -2980,27 +3032,27 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="41" t="s">
+      <c r="B11" s="47"/>
+      <c r="C11" s="48" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="49"/>
-      <c r="F11" s="47" t="s">
+      <c r="F11" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="41" t="s">
+      <c r="G11" s="47"/>
+      <c r="H11" s="48" t="s">
         <v>8</v>
       </c>
       <c r="I11" s="49"/>
-      <c r="K11" s="47" t="s">
+      <c r="K11" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="48"/>
-      <c r="M11" s="41" t="s">
+      <c r="L11" s="47"/>
+      <c r="M11" s="48" t="s">
         <v>8</v>
       </c>
       <c r="N11" s="49"/>
@@ -3048,13 +3100,13 @@
         <v>0</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>0</v>
@@ -3071,13 +3123,13 @@
       <c r="K13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="43" t="s">
+      <c r="L13" s="58" t="s">
         <v>36</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N13" s="45" t="s">
+      <c r="N13" s="41" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3085,13 +3137,13 @@
       <c r="A14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="58" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="41" t="s">
         <v>43</v>
       </c>
       <c r="F14" s="10" t="s">
@@ -3109,21 +3161,21 @@
       <c r="K14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="53"/>
+      <c r="L14" s="59"/>
       <c r="M14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N14" s="56"/>
+      <c r="N14" s="63"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="44"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="46"/>
+      <c r="D15" s="42"/>
       <c r="F15" s="10" t="s">
         <v>2</v>
       </c>
@@ -3139,34 +3191,34 @@
       <c r="K15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L15" s="44"/>
+      <c r="L15" s="60"/>
       <c r="M15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N15" s="46"/>
+      <c r="N15" s="42"/>
     </row>
     <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="41" t="s">
+      <c r="B16" s="47"/>
+      <c r="C16" s="48" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="49"/>
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="48"/>
-      <c r="H16" s="41" t="s">
+      <c r="G16" s="47"/>
+      <c r="H16" s="48" t="s">
         <v>10</v>
       </c>
       <c r="I16" s="49"/>
-      <c r="K16" s="47" t="s">
+      <c r="K16" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="48"/>
-      <c r="M16" s="41" t="s">
+      <c r="L16" s="47"/>
+      <c r="M16" s="48" t="s">
         <v>10</v>
       </c>
       <c r="N16" s="49"/>
@@ -3214,30 +3266,30 @@
         <v>0</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="43" t="s">
+      <c r="G18" s="58" t="s">
         <v>24</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="45" t="s">
+      <c r="I18" s="41" t="s">
         <v>25</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="43" t="s">
+      <c r="L18" s="58" t="s">
         <v>40</v>
       </c>
       <c r="M18" s="29" t="s">
@@ -3251,31 +3303,31 @@
       <c r="A19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="58" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="41" t="s">
         <v>38</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="53"/>
+      <c r="G19" s="59"/>
       <c r="H19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I19" s="56"/>
+      <c r="I19" s="63"/>
       <c r="K19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="53"/>
+      <c r="L19" s="59"/>
       <c r="M19" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N19" s="56" t="s">
+      <c r="N19" s="63" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3283,50 +3335,50 @@
       <c r="A20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="44"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="46"/>
+      <c r="D20" s="42"/>
       <c r="F20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="44"/>
+      <c r="G20" s="60"/>
       <c r="H20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I20" s="46"/>
+      <c r="I20" s="42"/>
       <c r="K20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="44"/>
+      <c r="L20" s="60"/>
       <c r="M20" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N20" s="46"/>
+      <c r="N20" s="42"/>
     </row>
     <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="41" t="s">
+      <c r="B21" s="47"/>
+      <c r="C21" s="48" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="49"/>
-      <c r="F21" s="47" t="s">
+      <c r="F21" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="48"/>
-      <c r="H21" s="41" t="s">
+      <c r="G21" s="47"/>
+      <c r="H21" s="48" t="s">
         <v>12</v>
       </c>
       <c r="I21" s="49"/>
-      <c r="K21" s="47" t="s">
+      <c r="K21" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="50"/>
-      <c r="M21" s="41" t="s">
+      <c r="L21" s="66"/>
+      <c r="M21" s="48" t="s">
         <v>12</v>
       </c>
       <c r="N21" s="49"/>
@@ -3374,36 +3426,36 @@
         <v>0</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="43" t="s">
+      <c r="G23" s="58" t="s">
         <v>26</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I23" s="45" t="s">
+      <c r="I23" s="41" t="s">
         <v>27</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L23" s="43" t="s">
+      <c r="L23" s="58" t="s">
         <v>34</v>
       </c>
       <c r="M23" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="N23" s="45" t="s">
+      <c r="N23" s="41" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3411,83 +3463,83 @@
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="58" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="45" t="s">
+      <c r="D24" s="41" t="s">
         <v>38</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="53"/>
+      <c r="G24" s="59"/>
       <c r="H24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="56"/>
+      <c r="I24" s="63"/>
       <c r="K24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L24" s="53"/>
+      <c r="L24" s="59"/>
       <c r="M24" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N24" s="56"/>
+      <c r="N24" s="63"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="44"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="46"/>
+      <c r="D25" s="42"/>
       <c r="F25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G25" s="44"/>
+      <c r="G25" s="60"/>
       <c r="H25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I25" s="46"/>
+      <c r="I25" s="42"/>
       <c r="K25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="44"/>
+      <c r="L25" s="60"/>
       <c r="M25" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N25" s="46"/>
+      <c r="N25" s="42"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="41" t="s">
+      <c r="B26" s="47"/>
+      <c r="C26" s="48" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="49"/>
-      <c r="F26" s="47" t="s">
+      <c r="F26" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="48"/>
-      <c r="H26" s="41" t="s">
+      <c r="G26" s="47"/>
+      <c r="H26" s="48" t="s">
         <v>14</v>
       </c>
       <c r="I26" s="49"/>
-      <c r="K26" s="47" t="s">
+      <c r="K26" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="50"/>
-      <c r="M26" s="41" t="s">
+      <c r="L26" s="66"/>
+      <c r="M26" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="42"/>
+      <c r="N26" s="67"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
@@ -3532,18 +3584,18 @@
         <v>0</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G28" s="43" t="s">
+      <c r="G28" s="58" t="s">
         <v>28</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -3555,69 +3607,69 @@
       <c r="K28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L28" s="43" t="s">
+      <c r="L28" s="58" t="s">
         <v>34</v>
       </c>
       <c r="M28" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="N28" s="45" t="s">
-        <v>122</v>
+      <c r="N28" s="41" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="58" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="45" t="s">
+      <c r="D29" s="41" t="s">
         <v>38</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="53"/>
+      <c r="G29" s="59"/>
       <c r="H29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I29" s="45" t="s">
-        <v>116</v>
+      <c r="I29" s="41" t="s">
+        <v>114</v>
       </c>
       <c r="K29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L29" s="53"/>
+      <c r="L29" s="59"/>
       <c r="M29" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N29" s="46"/>
+      <c r="N29" s="42"/>
     </row>
     <row r="30" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="70"/>
+      <c r="B30" s="69"/>
       <c r="C30" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="69"/>
+      <c r="D30" s="70"/>
       <c r="F30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="70"/>
+      <c r="G30" s="69"/>
       <c r="H30" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I30" s="69"/>
+      <c r="I30" s="70"/>
       <c r="K30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L30" s="70"/>
+      <c r="L30" s="69"/>
       <c r="M30" s="30" t="s">
         <v>2</v>
       </c>
@@ -3627,14 +3679,46 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L28:L30"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="K6:L6"/>
@@ -3651,46 +3735,14 @@
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="G8:G10"/>
     <mergeCell ref="I8:I10"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L28:L30"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="N23:N25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
